--- a/analyst/Ines/rmonize/data_dictionary/DD_KARMEN_INES.xlsx
+++ b/analyst/Ines/rmonize/data_dictionary/DD_KARMEN_INES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\Ines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\analyst\Ines\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>index</t>
   </si>
@@ -72,87 +72,42 @@
     <t>kcal_zb_tag_NCI</t>
   </si>
   <si>
-    <t>Energy intake [kcal/d]</t>
-  </si>
-  <si>
     <t xml:space="preserve">kh_tag_NCI </t>
   </si>
   <si>
-    <t>Carbohydrate intake [g/d]</t>
-  </si>
-  <si>
     <t xml:space="preserve">prot_tag_NCI  </t>
   </si>
   <si>
-    <t>Protein intake [g/d]</t>
-  </si>
-  <si>
     <t xml:space="preserve">ft_tag_NCI </t>
   </si>
   <si>
-    <t>Fat intake [g/d]</t>
-  </si>
-  <si>
     <t xml:space="preserve">al_tag_NCI </t>
   </si>
   <si>
-    <t>Alcohol intake [g/d]</t>
-  </si>
-  <si>
     <t xml:space="preserve">bs_tag_NCI </t>
   </si>
   <si>
-    <t>Dietary fiber intake [g/d]</t>
-  </si>
-  <si>
     <t>fsges_tag_NCI</t>
   </si>
   <si>
-    <t>Saturated fat intake [g/d]</t>
-  </si>
-  <si>
     <t>fseuges_tag_NCI</t>
   </si>
   <si>
-    <t>Monounsaturated fat intake [g/d]</t>
-  </si>
-  <si>
     <t>fsmuges_tag_NCI</t>
   </si>
   <si>
-    <t>Polyunsaturated fat intake [g/d]</t>
-  </si>
-  <si>
-    <t>KMD_tag</t>
-  </si>
-  <si>
-    <t>Total sugar intake [g/d]</t>
-  </si>
-  <si>
     <t>KMT_tag</t>
   </si>
   <si>
-    <t>Glucose intake [g/d]</t>
-  </si>
-  <si>
     <t>KMF_tag</t>
   </si>
   <si>
-    <t>Fructose intake [g/d]</t>
-  </si>
-  <si>
     <t>na_tag_NCI</t>
   </si>
   <si>
-    <t>Sodium intake [g/d]</t>
-  </si>
-  <si>
     <t>k_tag_NCI</t>
   </si>
   <si>
-    <t>Potassium intake [g/d]</t>
-  </si>
-  <si>
     <t>Alter_BE</t>
   </si>
   <si>
@@ -168,32 +123,68 @@
     <t>TU</t>
   </si>
   <si>
-    <t>waist circumference</t>
-  </si>
-  <si>
-    <t>FR_android</t>
-  </si>
-  <si>
-    <t>%body fat - Android region (related to total body mass as assessed by DXA)</t>
-  </si>
-  <si>
-    <t>FR_gynoid</t>
-  </si>
-  <si>
-    <t>%body fat - Gynoid region (related to total body mass as assessed by DXA)</t>
-  </si>
-  <si>
     <t>FMI</t>
   </si>
   <si>
     <t>Fat Mass Index</t>
+  </si>
+  <si>
+    <t>Taillenumfang</t>
+  </si>
+  <si>
+    <t>FG_Prozent</t>
+  </si>
+  <si>
+    <t>Gewebe%Fett – Gesamt in %</t>
+  </si>
+  <si>
+    <t>Sugars_NCI</t>
+  </si>
+  <si>
+    <t>Energy – incl. energy from dietary fiber</t>
+  </si>
+  <si>
+    <t>Carbohydrates</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Dietary Fiber</t>
+  </si>
+  <si>
+    <t>Saturated Fat</t>
+  </si>
+  <si>
+    <t>Monounsaturated Fat</t>
+  </si>
+  <si>
+    <t>Polyunsaturated Fat</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>Fructose</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Potassium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +214,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,10 +251,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,19 +284,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="XLConnect.String" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,17 +631,17 @@
     <col min="4" max="4" width="11.54296875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -674,46 +696,44 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="8" t="s">
+    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>51</v>
+      <c r="A9"/>
+      <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>7</v>
@@ -722,10 +742,10 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>7</v>
@@ -733,11 +753,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11"/>
-      <c r="B11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>43</v>
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>7</v>
@@ -746,10 +766,10 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>7</v>
@@ -760,43 +780,43 @@
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14"/>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15"/>
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
@@ -805,10 +825,10 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>7</v>
@@ -817,85 +837,90 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20"/>
-      <c r="B20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21"/>
-      <c r="B21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21"/>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22"/>
+        <v>24</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23"/>
-      <c r="B23" s="6" t="s">
-        <v>36</v>
+      <c r="B23" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23"/>
+        <v>49</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24" s="9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25"/>
-      <c r="B25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="B25"/>
+      <c r="C25"/>
       <c r="D25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1305,12 +1330,6 @@
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1351,6 +1370,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -1362,7 +1390,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -1603,16 +1631,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C05FF1B-7508-40EF-8319-E993EA07F007}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9CBEFE-8C4C-4054-8E02-CA457E93B4C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1629,7 +1656,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{607F74A7-32EE-406C-A688-0D84C4E12BE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1646,12 +1673,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C05FF1B-7508-40EF-8319-E993EA07F007}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/analyst/Ines/rmonize/data_dictionary/DD_KARMEN_INES.xlsx
+++ b/analyst/Ines/rmonize/data_dictionary/DD_KARMEN_INES.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>index</t>
   </si>
@@ -96,12 +96,6 @@
     <t>fsmuges_tag_NCI</t>
   </si>
   <si>
-    <t>KMT_tag</t>
-  </si>
-  <si>
-    <t>KMF_tag</t>
-  </si>
-  <si>
     <t>na_tag_NCI</t>
   </si>
   <si>
@@ -178,6 +172,15 @@
   </si>
   <si>
     <t>Potassium</t>
+  </si>
+  <si>
+    <t>sugars_NCI</t>
+  </si>
+  <si>
+    <t>KMT_tag_NCI</t>
+  </si>
+  <si>
+    <t>KMF_tag_NCI</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -696,10 +699,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>7</v>
@@ -707,10 +710,10 @@
     </row>
     <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
@@ -718,10 +721,10 @@
     </row>
     <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>7</v>
@@ -730,10 +733,10 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>7</v>
@@ -742,10 +745,10 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>7</v>
@@ -757,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>7</v>
@@ -769,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>7</v>
@@ -781,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>7</v>
@@ -792,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>7</v>
@@ -804,7 +807,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>7</v>
@@ -816,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
@@ -828,7 +831,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>7</v>
@@ -840,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>7</v>
@@ -852,7 +855,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>7</v>
@@ -860,10 +863,10 @@
     </row>
     <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>7</v>
@@ -872,10 +875,10 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21" s="6" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>7</v>
@@ -884,10 +887,10 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>7</v>
@@ -896,10 +899,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>7</v>
@@ -908,10 +911,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>7</v>
@@ -1379,18 +1382,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -1631,6 +1622,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C05FF1B-7508-40EF-8319-E993EA07F007}">
   <ds:schemaRefs>
@@ -1640,23 +1643,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9CBEFE-8C4C-4054-8E02-CA457E93B4C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{607F74A7-32EE-406C-A688-0D84C4E12BE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1673,4 +1659,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9CBEFE-8C4C-4054-8E02-CA457E93B4C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>